--- a/biology/Botanique/Philenoptera/Philenoptera.xlsx
+++ b/biology/Botanique/Philenoptera/Philenoptera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philenoptera  est un genre de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire d'Afrique subsaharienne, qui comprend six espèces acceptées.
 Ce sont des arbres ou arbustes, parfois des lianes poussant dans les forêts ripicoles, ainsi que dans les savanes arborées.
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (2 décembre 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (2 décembre 2018) :
 Philenoptera bussei (Harms) Schrire
 Philenoptera cyanescens (Schum. &amp; Thonn.) Roberty
 Philenoptera madagascariensis (Vatke) Schrire
